--- a/biology/Zoologie/Hadrurus/Hadrurus.xlsx
+++ b/biology/Zoologie/Hadrurus/Hadrurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadrurus est un genre de scorpions de la famille des Hadruridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Mexique et dans l'Ouest des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Mexique et dans l'Ouest des États-Unis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (13/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (13/06/2020) :
 Hadrurus anzaborrego Soleglad, Fet &amp; Lowe, 2011
 Hadrurus arizonensis Ewing, 1928
 Hadrurus concolorous Stahnke, 1969
@@ -579,9 +595,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces Hadrurus aztecus maintenant Hoffmannihadrurus aztecus et Hadrurus gertschi maintenant Hoffmannihadrurus gertschi reste des Hadrurus pour Francke &amp; Prendini[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces Hadrurus aztecus maintenant Hoffmannihadrurus aztecus et Hadrurus gertschi maintenant Hoffmannihadrurus gertschi reste des Hadrurus pour Francke &amp; Prendini.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1876 : On the classification of Scorpions. Annals and Magazine of Natural History, sér. 4, vol. 4, p. 1-15 (texte intégral).</t>
         </is>
